--- a/06-03-2023/data/output/xlsx/Causality for Categories/1.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Categories/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,81 +52,51 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
+    <t>num_of_equals__0,num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
@@ -145,249 +115,135 @@
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__24</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__25</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__26</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__27</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__28</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_equals__0</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__0,num_of_equals__1</t>
+  </si>
+  <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__0,num_of_equals__0</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
@@ -397,87 +253,45 @@
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
@@ -487,39 +301,21 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
@@ -538,79 +334,40 @@
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11</t>
   </si>
   <si>
     <t>pairs_of_parentheses__13</t>
@@ -772,10 +529,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$19</c:f>
+              <c:f>AddsSubs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -805,69 +562,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$19</c:f>
+              <c:f>AddsSubs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.1154239019407559</c:v>
+                  <c:v>0.5137895812053116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1077481840193705</c:v>
+                  <c:v>0.5036319612590799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1618122977346278</c:v>
+                  <c:v>0.4336569579288026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1717171717171717</c:v>
+                  <c:v>0.3686868686868687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1809523809523809</c:v>
+                  <c:v>0.3142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1772151898734177</c:v>
+                  <c:v>0.3164556962025317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1730769230769231</c:v>
+                  <c:v>0.2692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.1363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2222222222222222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,10 +721,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$18</c:f>
+              <c:f>MultsDivs!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1027,63 +760,51 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$18</c:f>
+              <c:f>MultsDivs!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.3796791443850268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3802816901408451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3287671232876712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3148148148148148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2702702702702703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.2941176470588235</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3098591549295774</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3978494623655914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.410958904109589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3783783783783784</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4090909090909091</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4705882352941176</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.4545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,10 +925,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$17</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1237,57 +958,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$17</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.1173520561685055</c:v>
+                  <c:v>0.5125376128385155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1140262361251261</c:v>
+                  <c:v>0.5146316851664985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1576994434137291</c:v>
+                  <c:v>0.4860853432282004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1744186046511628</c:v>
+                  <c:v>0.4302325581395349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1862745098039216</c:v>
+                  <c:v>0.357843137254902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2058823529411765</c:v>
+                  <c:v>0.3161764705882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2065217391304348</c:v>
+                  <c:v>0.3260869565217391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1666666666666667</c:v>
+                  <c:v>0.3518518518518519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1714285714285714</c:v>
+                  <c:v>0.3428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2941176470588235</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2222222222222222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,10 +1117,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$34</c:f>
+              <c:f>Decimals!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1450,156 +1159,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$34</c:f>
+              <c:f>Decimals!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.1527331189710611</c:v>
+                  <c:v>0.4196141479099679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1626016260162602</c:v>
+                  <c:v>0.3678861788617886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1863013698630137</c:v>
+                  <c:v>0.3424657534246575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.225296442687747</c:v>
+                  <c:v>0.2806324110671937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2275449101796407</c:v>
+                  <c:v>0.2754491017964072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2380952380952381</c:v>
+                  <c:v>0.246031746031746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2588235294117647</c:v>
+                  <c:v>0.1882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2615384615384616</c:v>
+                  <c:v>0.2153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2926829268292683</c:v>
+                  <c:v>0.1951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3225806451612903</c:v>
+                  <c:v>0.1612903225806452</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3043478260869565</c:v>
+                  <c:v>0.2173913043478261</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,10 +1327,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$13</c:f>
+              <c:f>Unknowns!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1747,27 +1354,30 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$13</c:f>
+              <c:f>Unknowns!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1182364729458918</c:v>
+                  <c:v>0.5120240480961924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09663250366032211</c:v>
+                  <c:v>0.4904831625183016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2210526315789474</c:v>
+                  <c:v>0.2842105263157895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2608695652173913</c:v>
@@ -1776,10 +1386,13 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2727272727272727</c:v>
+                  <c:v>0.3636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,10 +1513,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$18</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1921,75 +1534,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$18</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.1683417085427136</c:v>
+                  <c:v>0.449748743718593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2484076433121019</c:v>
+                  <c:v>0.3121019108280255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3023255813953488</c:v>
+                  <c:v>0.2558139534883721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4705882352941176</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1764705882352941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,14 +2183,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1154239019407559</v>
+        <v>0.5137895812053116</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.09433528530862872</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2633,19 +2206,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1077481840193705</v>
+        <v>0.5036319612590799</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>309</v>
@@ -2654,16 +2227,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1618122977346278</v>
+        <v>0.4336569579288026</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.2727833192687195</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2677,21 +2248,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1717171717171717</v>
+        <v>0.3686868686868687</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.04396502814828592</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2700,21 +2269,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1809523809523809</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.05198846460149901</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2723,21 +2290,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1772151898734177</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.001426200734866223</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2746,21 +2311,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1730769230769231</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E9" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.002100955162282414</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2769,21 +2332,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.2</v>
+        <v>0.275</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.01790605202353873</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2792,21 +2353,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.1163246279228033</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2815,21 +2374,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1357002791037796</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2838,21 +2395,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.22068014946043</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2861,19 +2416,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2882,21 +2437,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-0.1437813470134131</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2905,21 +2458,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-0.1304966712735364</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2931,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2952,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2973,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2994,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -3015,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -3033,21 +2584,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1527331189710611</v>
+        <v>0.4196141479099679</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.3597743135076213</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -3056,21 +2605,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1626016260162602</v>
+        <v>0.3678861788617886</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.3670197925146259</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -3079,21 +2626,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1863013698630137</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.3716254506788839</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -3102,21 +2647,19 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.225296442687747</v>
+        <v>0.2806324110671937</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.340949780788309</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -3125,21 +2668,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2275449101796407</v>
+        <v>0.2754491017964072</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.3219507615319199</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -3148,21 +2689,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.2380952380952381</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.3196684907686026</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -3171,21 +2710,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.2588235294117647</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.1590374024666422</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -3194,21 +2731,19 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2615384615384616</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="E29" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.1050616649705745</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -3217,21 +2752,19 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.2926829268292683</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E30" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.09058690838264651</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -3240,21 +2773,19 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.3225806451612903</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.1383316961188536</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -3263,21 +2794,19 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.3043478260869565</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E32" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.1516881837969895</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -3286,21 +2815,19 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.1536957872827135</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -3309,21 +2836,19 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.2131526928173499</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -3332,21 +2857,19 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.1985679720330568</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -3355,21 +2878,19 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.03688457227263652</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -3378,21 +2899,19 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.03688457227263652</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -3401,21 +2920,19 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.2138893613415762</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3424,21 +2941,19 @@
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.1151557736447861</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3447,21 +2962,19 @@
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.1151557736447861</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3470,21 +2983,19 @@
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.189357068200768</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3493,21 +3004,19 @@
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3516,21 +3025,19 @@
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3539,21 +3046,19 @@
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3562,21 +3067,19 @@
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3585,21 +3088,19 @@
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3608,21 +3109,19 @@
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3631,21 +3130,19 @@
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3654,21 +3151,19 @@
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3677,21 +3172,19 @@
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3700,21 +3193,19 @@
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3723,19 +3214,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1173520561685055</v>
+        <v>0.5125376128385155</v>
       </c>
       <c r="E52" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.5144733067959282</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3744,19 +3237,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1140262361251261</v>
+        <v>0.5146316851664985</v>
       </c>
       <c r="E53" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.3607843904962417</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3765,21 +3260,19 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1576994434137291</v>
+        <v>0.4860853432282004</v>
       </c>
       <c r="E54" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.3673888682675178</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3788,21 +3281,19 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.1744186046511628</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="E55" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.3300922869311043</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3811,21 +3302,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.1862745098039216</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="E56" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.3027522766402866</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3834,21 +3323,19 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.2058823529411765</v>
+        <v>0.3161764705882353</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.2195622224247686</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3857,21 +3344,19 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.2065217391304348</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="E58" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.006807385318748725</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3880,21 +3365,19 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E59" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" s="1">
-        <v>-0.03959146333376289</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3903,21 +3386,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1714285714285714</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E60" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.02588791952399999</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3926,21 +3407,19 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.2941176470588235</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.1875149696999136</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3949,21 +3428,19 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.2194953726810285</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3972,21 +3449,19 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.3125000158031025</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3998,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -4019,16 +3494,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -4037,21 +3512,19 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.2941176470588235</v>
+        <v>0.3796791443850268</v>
       </c>
       <c r="E66" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.3664524691114739</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -4060,21 +3533,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.3098591549295774</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="E67" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.3634017455864725</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -4083,21 +3554,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.3978494623655914</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E68" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.2645280432755807</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -4106,21 +3575,19 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.410958904109589</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="E69" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.02229716350667993</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -4129,21 +3596,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="E70" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" s="1">
-        <v>-0.001283195171427189</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -4152,21 +3617,19 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.3783783783783784</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E71" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G71" s="1">
-        <v>-0.03755689691814381</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -4175,21 +3638,19 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.4090909090909091</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E72" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.2650600303332109</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -4198,21 +3659,19 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.4705882352941176</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E73" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.2805305550376063</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -4221,21 +3680,19 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E74" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.1937028384223447</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -4244,21 +3701,19 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E75" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.2908582581687248</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -4267,21 +3722,19 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.366724082252019</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -4290,21 +3743,19 @@
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E77" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.4169107027061379</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -4313,21 +3764,19 @@
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.7249100023254712</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4336,21 +3785,19 @@
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.673090631224036</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -4359,19 +3806,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="E80" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -4380,19 +3827,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.09663250366032211</v>
+        <v>0.4904831625183016</v>
       </c>
       <c r="E81" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -4401,21 +3848,19 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.2210526315789474</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="E82" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.09309882402463604</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -4424,21 +3869,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.25</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E83" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.07122170613459007</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -4450,18 +3893,16 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="E84" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G84" s="1">
-        <v>-0.1423751968414143</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -4473,18 +3914,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="E85" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="1">
-        <v>-0.1706320154812546</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -4493,21 +3932,19 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E86" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G86" s="1">
-        <v>-0.1830514342900541</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -4519,18 +3956,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="E87" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G87" s="1">
-        <v>-0.1738661755688989</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -4539,19 +3974,19 @@
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E88" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4563,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4584,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4605,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4626,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4644,21 +4079,19 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.1683417085427136</v>
+        <v>0.449748743718593</v>
       </c>
       <c r="E93" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.2639558506858136</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4667,21 +4100,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.2484076433121019</v>
+        <v>0.3121019108280255</v>
       </c>
       <c r="E94" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.2344336330390098</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4690,21 +4121,19 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="E95" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.2384752203207653</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4713,21 +4142,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.3023255813953488</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E96" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.3080788136143142</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4736,21 +4163,19 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="E97" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.3805743410971369</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4759,21 +4184,19 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.4705882352941176</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E98" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.3946693188079062</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4782,21 +4205,19 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.4140222150985492</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4805,21 +4226,19 @@
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.1998139428158307</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4828,21 +4247,19 @@
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4851,21 +4268,19 @@
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4874,21 +4289,19 @@
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4897,21 +4310,19 @@
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4920,21 +4331,19 @@
         <v>103</v>
       </c>
       <c r="D105" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.04761986065026028</v>
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4946,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4967,11 +4376,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4981,7 +4390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4992,7 +4401,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5015,25 +4424,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5047,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1154239019407559</v>
+        <v>0.5137895812053116</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002812571005135905</v>
+        <v>0.001765533109119199</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5090,13 +4499,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1077481840193705</v>
+        <v>0.5036319612590799</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.01048828892652132</v>
+        <v>-0.008392086837112456</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5124,7 +4533,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>309</v>
@@ -5133,13 +4542,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1618122977346278</v>
+        <v>0.4336569579288026</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F6" s="1">
-        <v>0.04357582478873605</v>
+        <v>-0.0783670901673898</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5176,13 +4585,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1717171717171717</v>
+        <v>0.3686868686868687</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F7" s="1">
-        <v>0.05348069877127994</v>
+        <v>-0.1433371794093237</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5210,7 +4619,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -5219,13 +4628,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1809523809523809</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F8" s="1">
-        <v>0.06271590800648917</v>
+        <v>-0.1977383338104781</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5253,7 +4662,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -5262,13 +4671,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1772151898734177</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F9" s="1">
-        <v>0.05897871692752595</v>
+        <v>-0.1955683518936607</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5296,7 +4705,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -5305,13 +4714,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1730769230769231</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0548404501310313</v>
+        <v>-0.2427932788654232</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5339,7 +4748,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -5348,13 +4757,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2</v>
+        <v>0.275</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F11" s="1">
-        <v>0.08176352705410823</v>
+        <v>-0.2370240480961924</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5382,7 +4791,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
@@ -5391,13 +4800,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F12" s="1">
-        <v>0.06358170887229005</v>
+        <v>-0.375660411732556</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5425,7 +4834,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>18</v>
@@ -5434,13 +4843,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1039857492763304</v>
+        <v>-0.4009129369850813</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5463,178 +4872,6 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.08176352705410823</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-0.007125361834780672</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.006763527054108223</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.02462066991125107</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -5645,671 +4882,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="3">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1758811741129317</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.3098591549295774</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.1916226819836856</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="3">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.3978494623655914</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2796129894196996</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="3">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.410958904109589</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.2927224311636972</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="3">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.2706524159429971</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="3">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.2601419054324866</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.2908544361450173</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.3523517623482258</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2453998906904719</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.4817635270541082</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5484301937207748</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -6322,7 +4894,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6345,45 +4917,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3">
-        <v>997</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1173520561685055</v>
+        <v>0.3796791443850268</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0008844167773862655</v>
+        <v>-0.1323449037111656</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6411,22 +4983,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3">
-        <v>991</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1140262361251261</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.004210236820765642</v>
+        <v>-0.1317423579553473</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6454,22 +5026,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3">
-        <v>539</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1576994434137291</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F6" s="1">
-        <v>0.03946297046783735</v>
+        <v>-0.1786907147628591</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6497,22 +5069,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1744186046511628</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F7" s="1">
-        <v>0.05618213170527102</v>
+        <v>-0.1832569248085212</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6540,22 +5112,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1862745098039216</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0680380368580298</v>
+        <v>-0.1972092332813776</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6583,22 +5155,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2058823529411765</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08764587999528468</v>
+        <v>-0.2417537778259221</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6626,22 +5198,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2065217391304348</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F10" s="1">
-        <v>0.08828526618454301</v>
+        <v>-0.1938422299143742</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6669,22 +5241,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F11" s="1">
-        <v>0.04843019372077488</v>
+        <v>-0.2179064010373689</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6712,22 +5284,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1714285714285714</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F12" s="1">
-        <v>0.05319209848267965</v>
+        <v>-0.05747859355073787</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6755,22 +5327,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2941176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1758811741129317</v>
+        <v>-0.2620240480961924</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6798,22 +5370,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1039857492763304</v>
+        <v>-0.1120240480961924</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6841,22 +5413,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F15" s="1">
-        <v>0.2817635270541082</v>
+        <v>-0.1786907147628591</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6888,9 +5460,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6901,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6924,45 +5496,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>997</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1527331189710611</v>
+        <v>0.5125376128385155</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F4" s="1">
-        <v>0.03449664602516932</v>
+        <v>0.0005135647423231138</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6990,22 +5562,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>991</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1626016260162602</v>
+        <v>0.5146316851664985</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F5" s="1">
-        <v>0.04436515307036838</v>
+        <v>0.00260763707030609</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7033,22 +5605,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
-        <v>365</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1863013698630137</v>
+        <v>0.4860853432282004</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F6" s="1">
-        <v>0.06806489691712193</v>
+        <v>-0.02593870486799205</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7076,22 +5648,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.225296442687747</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1070599697418553</v>
+        <v>-0.08179148995665753</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7119,22 +5691,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2275449101796407</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F8" s="1">
-        <v>0.1093084372337489</v>
+        <v>-0.1541809108412904</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7162,22 +5734,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2380952380952381</v>
+        <v>0.3161764705882353</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1198587651493463</v>
+        <v>-0.1958475775079571</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7205,22 +5777,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2588235294117647</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1405870564658729</v>
+        <v>-0.1859370915744533</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7248,22 +5820,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3">
         <v>54</v>
-      </c>
-      <c r="B11" s="3">
-        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2615384615384616</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1433019885925698</v>
+        <v>-0.1601721962443405</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -7291,22 +5863,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2926829268292683</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1744464538833765</v>
+        <v>-0.1691669052390495</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7334,22 +5906,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.3225806451612903</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2043441722153985</v>
+        <v>-0.4532005186844277</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -7372,866 +5944,6 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1861113531410648</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.2150968603874415</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.3103349556255368</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.2150968603874415</v>
-      </c>
-      <c r="G18" s="1">
-        <f>1/(POWER(B18,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f>G18*H18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K18" s="1">
-        <f>I18*J18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <f>MIN(K18,1-D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.2150968603874415</v>
-      </c>
-      <c r="G19" s="1">
-        <f>1/(POWER(B19,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <f>G19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K19" s="1">
-        <f>I19*J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <f>MIN(K19,1-D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.2817635270541082</v>
-      </c>
-      <c r="G20" s="1">
-        <f>1/(POWER(B20,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K20" s="1">
-        <f>I20*J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <f>MIN(K20,1-D20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.1317635270541082</v>
-      </c>
-      <c r="G21" s="1">
-        <f>1/(POWER(B21,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <f>G21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K21" s="1">
-        <f>I21*J21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <f>MIN(K21,1-D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.1317635270541082</v>
-      </c>
-      <c r="G22" s="1">
-        <f>1/(POWER(B22,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <f>G22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K22" s="1">
-        <f>I22*J22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <f>MIN(K22,1-D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.2150968603874415</v>
-      </c>
-      <c r="G23" s="1">
-        <f>1/(POWER(B23,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <f>SQRT((D23-POWER(10,-4))*B23*((1-D23+POWER(10,-4))*B23))</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <f>G23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K23" s="1">
-        <f>I23*J23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <f>MIN(K23,1-D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G24" s="1">
-        <f>1/(POWER(B24,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f>SQRT((D24-POWER(10,-4))*B24*((1-D24+POWER(10,-4))*B24))</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f>G24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K24" s="1">
-        <f>I24*J24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <f>MIN(K24,1-D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G25" s="1">
-        <f>1/(POWER(B25,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <f>SQRT((D25-POWER(10,-4))*B25*((1-D25+POWER(10,-4))*B25))</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <f>G25*H25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K25" s="1">
-        <f>I25*J25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <f>MIN(K25,1-D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G26" s="1">
-        <f>1/(POWER(B26,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <f>SQRT((D26-POWER(10,-4))*B26*((1-D26+POWER(10,-4))*B26))</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <f>G26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K26" s="1">
-        <f>I26*J26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <f>MIN(K26,1-D26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G27" s="1">
-        <f>1/(POWER(B27,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <f>SQRT((D27-POWER(10,-4))*B27*((1-D27+POWER(10,-4))*B27))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <f>G27*H27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K27" s="1">
-        <f>I27*J27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <f>MIN(K27,1-D27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G28" s="1">
-        <f>1/(POWER(B28,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>SQRT((D28-POWER(10,-4))*B28*((1-D28+POWER(10,-4))*B28))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <f>G28*H28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K28" s="1">
-        <f>I28*J28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <f>MIN(K28,1-D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G29" s="1">
-        <f>1/(POWER(B29,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>SQRT((D29-POWER(10,-4))*B29*((1-D29+POWER(10,-4))*B29))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <f>G29*H29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K29" s="1">
-        <f>I29*J29</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <f>MIN(K29,1-D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G30" s="1">
-        <f>1/(POWER(B30,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>SQRT((D30-POWER(10,-4))*B30*((1-D30+POWER(10,-4))*B30))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <f>G30*H30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K30" s="1">
-        <f>I30*J30</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>MIN(K30,1-D30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G31" s="1">
-        <f>1/(POWER(B31,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f>SQRT((D31-POWER(10,-4))*B31*((1-D31+POWER(10,-4))*B31))</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <f>G31*H31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K31" s="1">
-        <f>I31*J31</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <f>MIN(K31,1-D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G32" s="1">
-        <f>1/(POWER(B32,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <f>SQRT((D32-POWER(10,-4))*B32*((1-D32+POWER(10,-4))*B32))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <f>G32*H32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K32" s="1">
-        <f>I32*J32</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <f>MIN(K32,1-D32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.8817635270541082</v>
-      </c>
-      <c r="G33" s="1">
-        <f>1/(POWER(B33,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <f>SQRT((D33-POWER(10,-4))*B33*((1-D33+POWER(10,-4))*B33))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <f>G33*H33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K33" s="1">
-        <f>I33*J33</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <f>MIN(K33,1-D33)</f>
         <v>0</v>
       </c>
     </row>
@@ -8241,414 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="3">
-        <v>998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="3">
-        <v>683</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.09663250366032211</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.02160396928556967</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="3">
-        <v>95</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.2210526315789474</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.1028161586330556</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.1317635270541082</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1426330922714995</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="3">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.1674778127683939</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="3">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.1544907997813809</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.1674778127683939</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -8661,7 +5966,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8684,30 +5989,1102 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.4196141479099679</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.09240990018622453</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.3678861788617886</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.1441378692344038</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.1695582946715349</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2806324110671937</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.2313916370289987</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2754491017964072</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2365749462997852</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.246031746031746</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2659923020644464</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1882352941176471</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.3237887539785453</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.296639432711577</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.3169020968766802</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.3507337255155473</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.2946327437483663</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.3120240480961924</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.4120240480961924</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3">
+        <v>998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4904831625183016</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.0215408855778908</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2842105263157895</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.2278135217804029</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.3197163557885001</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2511544828788011</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2263097623819067</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.1483876844598288</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.2263097623819067</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.1120240480961924</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -8716,13 +7093,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1683417085427136</v>
+        <v>0.449748743718593</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0501052355968218</v>
+        <v>-0.06227530437759943</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -8750,7 +7127,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -8759,13 +7136,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2484076433121019</v>
+        <v>0.3121019108280255</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F5" s="1">
-        <v>0.1301711703662101</v>
+        <v>-0.1999221372681669</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -8793,7 +7170,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -8802,13 +7179,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1617635270541082</v>
+        <v>-0.1920240480961924</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -8836,7 +7213,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -8845,13 +7222,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3023255813953488</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F7" s="1">
-        <v>0.184089108449457</v>
+        <v>-0.2562100946078203</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8879,7 +7256,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -8888,13 +7265,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F8" s="1">
-        <v>0.3217635270541082</v>
+        <v>-0.3520240480961924</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8922,7 +7299,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
@@ -8931,13 +7308,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.4705882352941176</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.5120240480961924</v>
       </c>
       <c r="F9" s="1">
-        <v>0.3523517623482258</v>
+        <v>-0.3355534598608982</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8960,307 +7337,6 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.5484301937207748</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.5484301937207748</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5484301937207748</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5484301937207748</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.3817635270541082</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
